--- a/assignment02/q2/TimeMapAnalysis.xlsx
+++ b/assignment02/q2/TimeMapAnalysis.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">timeMapResults2!$A$1:$B$1002</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1005">
   <si>
     <t>http://www.usa.gov/Contact-Us.shtml,</t>
   </si>
@@ -3025,9 +3025,6 @@
   </si>
   <si>
     <t>Bin</t>
-  </si>
-  <si>
-    <t>More</t>
   </si>
   <si>
     <t>Frequency</t>
@@ -3623,8 +3620,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Histogram</a:t>
+              <a:t>URIs</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v. Number of Mementos</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3637,9 +3639,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="4.9005508114302612E-2"/>
-          <c:y val="5.3770296923288281E-2"/>
-          <c:w val="0.87913112269417026"/>
-          <c:h val="0.87845302849792695"/>
+          <c:y val="5.3770296923288295E-2"/>
+          <c:w val="0.8791311226941706"/>
+          <c:h val="0.87845302849792684"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3652,9 +3654,10 @@
             <c:v>Frequency</c:v>
           </c:tx>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Histogram!$A$2:$A$29</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3737,11 +3740,8 @@
                 <c:pt idx="26">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>More</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3830,22 +3830,18 @@
                 <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showVal val="1"/>
         </c:dLbls>
-        <c:axId val="160410624"/>
-        <c:axId val="160424704"/>
+        <c:axId val="99545856"/>
+        <c:axId val="99547776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160410624"/>
+        <c:axId val="99545856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,22 +3857,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>No. of Tmemaps</a:t>
+                  <a:t>No. of Mementos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160424704"/>
+        <c:crossAx val="99547776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160424704"/>
+        <c:axId val="99547776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3902,20 +3899,16 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160410624"/>
+        <c:crossAx val="99545856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4243,8 +4236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4254,7 +4247,7 @@
         <v>1001</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4474,12 +4467,8 @@
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A29" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <sortState ref="A2:A28">
@@ -4495,7 +4484,7 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9608,10 +9597,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1004</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="2" spans="1:2">
